--- a/example-output/xslx/NY_cafr2014-statement_of_activities.xlsx
+++ b/example-output/xslx/NY_cafr2014-statement_of_activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NY_cafr2014-statement_of_activi" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -1279,7 +1279,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12">
-        <v>27778</v>
+        <v>-27778</v>
       </c>
       <c r="H30" s="13"/>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12">
-        <v>841</v>
+        <v>-841</v>
       </c>
       <c r="H31" s="13"/>
     </row>
@@ -1607,7 +1607,7 @@
         <v>31791</v>
       </c>
       <c r="G46" s="12">
-        <v>27778</v>
+        <v>-27778</v>
       </c>
       <c r="H46" s="13">
         <v>3927</v>
